--- a/www/docs/EgyptUnitedArabRepublic_1958_1961_all_data.xlsx
+++ b/www/docs/EgyptUnitedArabRepublic_1958_1961_all_data.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Data Clio Infra Format" r:id="rId3" sheetId="1"/>
-    <sheet name="Metadata" r:id="rId4" sheetId="2"/>
+    <sheet name="Data Long Format" r:id="rId4" sheetId="2"/>
+    <sheet name="Metadata" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="548">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1590,6 +1591,9 @@
     <t>cshapes/1604</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Egypt (United Arab Republic)</t>
   </si>
   <si>
@@ -1597,6 +1601,21 @@
   </si>
   <si>
     <t>Exchange Rates to UK Pound</t>
+  </si>
+  <si>
+    <t>0.975077209899</t>
+  </si>
+  <si>
+    <t>Borders Start Year</t>
+  </si>
+  <si>
+    <t>Borders End Year</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>Description</t>
@@ -3267,12 +3286,14 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="n">
-        <v>1604.0</v>
-      </c>
-      <c r="C2"/>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>525</v>
+      </c>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E2" t="s">
         <v>466</v>
@@ -3281,531 +3302,1559 @@
         <v>469</v>
       </c>
       <c r="G2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H2" t="s">
-        <v>527</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
-      <c r="DI2"/>
-      <c r="DJ2"/>
-      <c r="DK2"/>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
-      <c r="EA2"/>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
-      <c r="EE2"/>
-      <c r="EF2"/>
-      <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
-      <c r="EJ2"/>
-      <c r="EK2"/>
-      <c r="EL2"/>
-      <c r="EM2"/>
-      <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
-      <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
-      <c r="EW2"/>
-      <c r="EX2"/>
-      <c r="EY2"/>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
-      <c r="FD2"/>
-      <c r="FE2"/>
-      <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2"/>
-      <c r="FI2"/>
-      <c r="FJ2"/>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
-      <c r="FS2"/>
-      <c r="FT2"/>
-      <c r="FU2"/>
-      <c r="FV2"/>
-      <c r="FW2"/>
-      <c r="FX2"/>
-      <c r="FY2"/>
-      <c r="FZ2"/>
-      <c r="GA2"/>
-      <c r="GB2"/>
-      <c r="GC2"/>
-      <c r="GD2"/>
-      <c r="GE2"/>
-      <c r="GF2"/>
-      <c r="GG2"/>
-      <c r="GH2"/>
-      <c r="GI2"/>
-      <c r="GJ2"/>
-      <c r="GK2"/>
-      <c r="GL2"/>
-      <c r="GM2"/>
-      <c r="GN2"/>
-      <c r="GO2"/>
-      <c r="GP2"/>
-      <c r="GQ2"/>
-      <c r="GR2"/>
-      <c r="GS2"/>
-      <c r="GT2"/>
-      <c r="GU2"/>
-      <c r="GV2"/>
-      <c r="GW2"/>
-      <c r="GX2"/>
-      <c r="GY2"/>
-      <c r="GZ2"/>
-      <c r="HA2"/>
-      <c r="HB2"/>
-      <c r="HC2"/>
-      <c r="HD2"/>
-      <c r="HE2"/>
-      <c r="HF2"/>
-      <c r="HG2"/>
-      <c r="HH2"/>
-      <c r="HI2"/>
-      <c r="HJ2"/>
-      <c r="HK2"/>
-      <c r="HL2"/>
-      <c r="HM2"/>
-      <c r="HN2"/>
-      <c r="HO2"/>
-      <c r="HP2"/>
-      <c r="HQ2"/>
-      <c r="HR2"/>
-      <c r="HS2"/>
-      <c r="HT2"/>
-      <c r="HU2"/>
-      <c r="HV2"/>
-      <c r="HW2"/>
-      <c r="HX2"/>
-      <c r="HY2"/>
-      <c r="HZ2"/>
-      <c r="IA2"/>
-      <c r="IB2"/>
-      <c r="IC2"/>
-      <c r="ID2"/>
-      <c r="IE2"/>
-      <c r="IF2"/>
-      <c r="IG2"/>
-      <c r="IH2"/>
-      <c r="II2"/>
-      <c r="IJ2"/>
-      <c r="IK2"/>
-      <c r="IL2"/>
-      <c r="IM2"/>
-      <c r="IN2"/>
-      <c r="IO2"/>
-      <c r="IP2"/>
-      <c r="IQ2"/>
-      <c r="IR2"/>
-      <c r="IS2"/>
-      <c r="IT2"/>
-      <c r="IU2"/>
-      <c r="IV2"/>
-      <c r="IW2"/>
-      <c r="IX2"/>
-      <c r="IY2"/>
-      <c r="IZ2"/>
-      <c r="JA2"/>
-      <c r="JB2"/>
-      <c r="JC2"/>
-      <c r="JD2"/>
-      <c r="JE2"/>
-      <c r="JF2"/>
-      <c r="JG2"/>
-      <c r="JH2"/>
-      <c r="JI2"/>
-      <c r="JJ2"/>
-      <c r="JK2"/>
-      <c r="JL2"/>
-      <c r="JM2"/>
-      <c r="JN2"/>
-      <c r="JO2"/>
-      <c r="JP2"/>
-      <c r="JQ2"/>
-      <c r="JR2"/>
-      <c r="JS2"/>
-      <c r="JT2"/>
-      <c r="JU2"/>
-      <c r="JV2"/>
-      <c r="JW2"/>
-      <c r="JX2"/>
-      <c r="JY2"/>
-      <c r="JZ2"/>
-      <c r="KA2"/>
-      <c r="KB2"/>
-      <c r="KC2"/>
-      <c r="KD2"/>
-      <c r="KE2"/>
-      <c r="KF2"/>
-      <c r="KG2"/>
-      <c r="KH2"/>
-      <c r="KI2"/>
-      <c r="KJ2"/>
-      <c r="KK2"/>
-      <c r="KL2"/>
-      <c r="KM2"/>
-      <c r="KN2"/>
-      <c r="KO2"/>
-      <c r="KP2"/>
-      <c r="KQ2"/>
-      <c r="KR2"/>
-      <c r="KS2"/>
-      <c r="KT2"/>
-      <c r="KU2"/>
-      <c r="KV2"/>
-      <c r="KW2"/>
-      <c r="KX2"/>
-      <c r="KY2"/>
-      <c r="KZ2"/>
-      <c r="LA2"/>
-      <c r="LB2"/>
-      <c r="LC2"/>
-      <c r="LD2"/>
-      <c r="LE2"/>
-      <c r="LF2"/>
-      <c r="LG2"/>
-      <c r="LH2"/>
-      <c r="LI2"/>
-      <c r="LJ2"/>
-      <c r="LK2"/>
-      <c r="LL2"/>
-      <c r="LM2"/>
-      <c r="LN2"/>
-      <c r="LO2"/>
-      <c r="LP2"/>
-      <c r="LQ2"/>
-      <c r="LR2"/>
-      <c r="LS2"/>
-      <c r="LT2"/>
-      <c r="LU2"/>
-      <c r="LV2"/>
-      <c r="LW2"/>
-      <c r="LX2"/>
-      <c r="LY2"/>
-      <c r="LZ2"/>
-      <c r="MA2"/>
-      <c r="MB2"/>
-      <c r="MC2"/>
-      <c r="MD2"/>
-      <c r="ME2"/>
-      <c r="MF2"/>
-      <c r="MG2"/>
-      <c r="MH2"/>
-      <c r="MI2"/>
-      <c r="MJ2"/>
-      <c r="MK2"/>
-      <c r="ML2"/>
-      <c r="MM2"/>
-      <c r="MN2"/>
-      <c r="MO2"/>
-      <c r="MP2"/>
-      <c r="MQ2"/>
-      <c r="MR2"/>
-      <c r="MS2"/>
-      <c r="MT2"/>
-      <c r="MU2"/>
-      <c r="MV2"/>
-      <c r="MW2"/>
-      <c r="MX2"/>
-      <c r="MY2"/>
-      <c r="MZ2"/>
-      <c r="NA2"/>
-      <c r="NB2"/>
-      <c r="NC2"/>
-      <c r="ND2"/>
-      <c r="NE2"/>
-      <c r="NF2"/>
-      <c r="NG2"/>
-      <c r="NH2"/>
-      <c r="NI2"/>
-      <c r="NJ2"/>
-      <c r="NK2"/>
-      <c r="NL2"/>
-      <c r="NM2"/>
-      <c r="NN2"/>
-      <c r="NO2"/>
-      <c r="NP2"/>
-      <c r="NQ2"/>
-      <c r="NR2"/>
-      <c r="NS2"/>
-      <c r="NT2"/>
-      <c r="NU2"/>
-      <c r="NV2"/>
-      <c r="NW2"/>
-      <c r="NX2"/>
-      <c r="NY2"/>
-      <c r="NZ2"/>
-      <c r="OA2"/>
-      <c r="OB2"/>
-      <c r="OC2"/>
-      <c r="OD2"/>
-      <c r="OE2"/>
-      <c r="OF2"/>
-      <c r="OG2"/>
-      <c r="OH2"/>
-      <c r="OI2"/>
-      <c r="OJ2"/>
-      <c r="OK2"/>
-      <c r="OL2"/>
-      <c r="OM2"/>
-      <c r="ON2"/>
-      <c r="OO2"/>
-      <c r="OP2"/>
-      <c r="OQ2"/>
-      <c r="OR2"/>
-      <c r="OS2"/>
-      <c r="OT2"/>
-      <c r="OU2"/>
-      <c r="OV2"/>
-      <c r="OW2"/>
-      <c r="OX2"/>
-      <c r="OY2"/>
-      <c r="OZ2"/>
-      <c r="PA2"/>
-      <c r="PB2"/>
-      <c r="PC2"/>
-      <c r="PD2"/>
-      <c r="PE2"/>
-      <c r="PF2"/>
-      <c r="PG2"/>
-      <c r="PH2"/>
-      <c r="PI2"/>
-      <c r="PJ2"/>
-      <c r="PK2"/>
-      <c r="PL2"/>
-      <c r="PM2"/>
-      <c r="PN2"/>
-      <c r="PO2"/>
-      <c r="PP2"/>
-      <c r="PQ2"/>
-      <c r="PR2"/>
-      <c r="PS2"/>
-      <c r="PT2"/>
-      <c r="PU2"/>
-      <c r="PV2"/>
-      <c r="PW2"/>
-      <c r="PX2"/>
-      <c r="PY2"/>
-      <c r="PZ2"/>
-      <c r="QA2"/>
-      <c r="QB2"/>
-      <c r="QC2"/>
-      <c r="QD2"/>
-      <c r="QE2"/>
-      <c r="QF2"/>
-      <c r="QG2"/>
-      <c r="QH2"/>
-      <c r="QI2"/>
-      <c r="QJ2"/>
-      <c r="QK2"/>
-      <c r="QL2"/>
-      <c r="QM2"/>
-      <c r="QN2"/>
-      <c r="QO2"/>
-      <c r="QP2"/>
-      <c r="QQ2"/>
-      <c r="QR2"/>
-      <c r="QS2"/>
-      <c r="QT2"/>
-      <c r="QU2"/>
-      <c r="QV2"/>
-      <c r="QW2"/>
-      <c r="QX2"/>
-      <c r="QY2"/>
-      <c r="QZ2" t="n">
-        <v>0.9750772098989999</v>
-      </c>
-      <c r="RA2" t="n">
-        <v>0.9750772098989999</v>
-      </c>
-      <c r="RB2"/>
-      <c r="RC2"/>
-      <c r="RD2"/>
-      <c r="RE2"/>
-      <c r="RF2"/>
-      <c r="RG2"/>
-      <c r="RH2"/>
-      <c r="RI2"/>
-      <c r="RJ2"/>
-      <c r="RK2"/>
-      <c r="RL2"/>
-      <c r="RM2"/>
-      <c r="RN2"/>
-      <c r="RO2"/>
-      <c r="RP2"/>
-      <c r="RQ2"/>
-      <c r="RR2"/>
-      <c r="RS2"/>
-      <c r="RT2"/>
-      <c r="RU2"/>
-      <c r="RV2"/>
-      <c r="RW2"/>
-      <c r="RX2"/>
-      <c r="RY2"/>
-      <c r="RZ2"/>
-      <c r="SA2"/>
-      <c r="SB2"/>
-      <c r="SC2"/>
-      <c r="SD2"/>
-      <c r="SE2"/>
-      <c r="SF2"/>
-      <c r="SG2"/>
-      <c r="SH2"/>
-      <c r="SI2"/>
-      <c r="SJ2"/>
-      <c r="SK2"/>
-      <c r="SL2"/>
-      <c r="SM2"/>
-      <c r="SN2"/>
-      <c r="SO2"/>
-      <c r="SP2"/>
-      <c r="SQ2"/>
-      <c r="SR2"/>
-      <c r="SS2"/>
-      <c r="ST2"/>
-      <c r="SU2"/>
-      <c r="SV2"/>
-      <c r="SW2"/>
-      <c r="SX2"/>
-      <c r="SY2"/>
-      <c r="SZ2"/>
-      <c r="TA2"/>
-      <c r="TB2"/>
-      <c r="TC2"/>
-      <c r="TD2"/>
+        <v>528</v>
+      </c>
+      <c r="I2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K2" t="s">
+        <v>525</v>
+      </c>
+      <c r="L2" t="s">
+        <v>525</v>
+      </c>
+      <c r="M2" t="s">
+        <v>525</v>
+      </c>
+      <c r="N2" t="s">
+        <v>525</v>
+      </c>
+      <c r="O2" t="s">
+        <v>525</v>
+      </c>
+      <c r="P2" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>525</v>
+      </c>
+      <c r="R2" t="s">
+        <v>525</v>
+      </c>
+      <c r="S2" t="s">
+        <v>525</v>
+      </c>
+      <c r="T2" t="s">
+        <v>525</v>
+      </c>
+      <c r="U2" t="s">
+        <v>525</v>
+      </c>
+      <c r="V2" t="s">
+        <v>525</v>
+      </c>
+      <c r="W2" t="s">
+        <v>525</v>
+      </c>
+      <c r="X2" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="II2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ME2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ML2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="MZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ON2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="PZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="QZ2" t="s">
+        <v>529</v>
+      </c>
+      <c r="RA2" t="s">
+        <v>529</v>
+      </c>
+      <c r="RB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SS2" t="s">
+        <v>525</v>
+      </c>
+      <c r="ST2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SU2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SV2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SW2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SX2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SY2" t="s">
+        <v>525</v>
+      </c>
+      <c r="SZ2" t="s">
+        <v>525</v>
+      </c>
+      <c r="TA2" t="s">
+        <v>525</v>
+      </c>
+      <c r="TB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="TC2" t="s">
+        <v>525</v>
+      </c>
+      <c r="TD2" t="s">
+        <v>525</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3822,68 +4871,141 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>528</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C1" t="s">
-        <v>530</v>
+        <v>531</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C2" t="s">
-        <v>537</v>
+        <v>526</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9750772</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>532</v>
+        <v>526</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9750772</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>538</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C3" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C4" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C5" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C6" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/EgyptUnitedArabRepublic_1958_1961_all_data.xlsx
+++ b/www/docs/EgyptUnitedArabRepublic_1958_1961_all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="546">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1591,9 +1591,6 @@
     <t>cshapes/1604</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Egypt (United Arab Republic)</t>
   </si>
   <si>
@@ -1603,9 +1600,6 @@
     <t>Exchange Rates to UK Pound</t>
   </si>
   <si>
-    <t>0.975077209899</t>
-  </si>
-  <si>
     <t>Borders Start Year</t>
   </si>
   <si>
@@ -1645,19 +1639,19 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/data/DataAtHistoricalBorders.xlsx</t>
+    <t>https://www.clio-infra.eu/data/EgyptUnitedArabRepublic_1958_1961_all_data.xlsx</t>
   </si>
   <si>
     <t>Bosch, Reinoud and Koen van den Bos (2015). Exchange Rates to UK Pound. http://hdl.handle.net/10622/N6BLB8, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.bib</t>
   </si>
 </sst>
 </file>
@@ -3286,1575 +3280,545 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="n">
+        <v>1604.0</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
         <v>525</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="G2" t="s">
         <v>526</v>
       </c>
-      <c r="E2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F2" t="s">
-        <v>469</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>527</v>
       </c>
-      <c r="H2" t="s">
-        <v>528</v>
-      </c>
-      <c r="I2" t="s">
-        <v>525</v>
-      </c>
-      <c r="J2" t="s">
-        <v>525</v>
-      </c>
-      <c r="K2" t="s">
-        <v>525</v>
-      </c>
-      <c r="L2" t="s">
-        <v>525</v>
-      </c>
-      <c r="M2" t="s">
-        <v>525</v>
-      </c>
-      <c r="N2" t="s">
-        <v>525</v>
-      </c>
-      <c r="O2" t="s">
-        <v>525</v>
-      </c>
-      <c r="P2" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>525</v>
-      </c>
-      <c r="R2" t="s">
-        <v>525</v>
-      </c>
-      <c r="S2" t="s">
-        <v>525</v>
-      </c>
-      <c r="T2" t="s">
-        <v>525</v>
-      </c>
-      <c r="U2" t="s">
-        <v>525</v>
-      </c>
-      <c r="V2" t="s">
-        <v>525</v>
-      </c>
-      <c r="W2" t="s">
-        <v>525</v>
-      </c>
-      <c r="X2" t="s">
-        <v>525</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>525</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="II2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="IZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="JZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="KZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ME2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ML2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="NZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ON2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="OZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="PZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="QZ2" t="s">
-        <v>529</v>
-      </c>
-      <c r="RA2" t="s">
-        <v>529</v>
-      </c>
-      <c r="RB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RT2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="RZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SD2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SE2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SF2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SG2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SH2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SI2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SJ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SK2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SL2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SM2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SN2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SO2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SP2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SQ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SR2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SS2" t="s">
-        <v>525</v>
-      </c>
-      <c r="ST2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SU2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SV2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SW2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SX2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SY2" t="s">
-        <v>525</v>
-      </c>
-      <c r="SZ2" t="s">
-        <v>525</v>
-      </c>
-      <c r="TA2" t="s">
-        <v>525</v>
-      </c>
-      <c r="TB2" t="s">
-        <v>525</v>
-      </c>
-      <c r="TC2" t="s">
-        <v>525</v>
-      </c>
-      <c r="TD2" t="s">
-        <v>525</v>
-      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2"/>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
+      <c r="LJ2"/>
+      <c r="LK2"/>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2"/>
+      <c r="LR2"/>
+      <c r="LS2"/>
+      <c r="LT2"/>
+      <c r="LU2"/>
+      <c r="LV2"/>
+      <c r="LW2"/>
+      <c r="LX2"/>
+      <c r="LY2"/>
+      <c r="LZ2"/>
+      <c r="MA2"/>
+      <c r="MB2"/>
+      <c r="MC2"/>
+      <c r="MD2"/>
+      <c r="ME2"/>
+      <c r="MF2"/>
+      <c r="MG2"/>
+      <c r="MH2"/>
+      <c r="MI2"/>
+      <c r="MJ2"/>
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2"/>
+      <c r="MP2"/>
+      <c r="MQ2"/>
+      <c r="MR2"/>
+      <c r="MS2"/>
+      <c r="MT2"/>
+      <c r="MU2"/>
+      <c r="MV2"/>
+      <c r="MW2"/>
+      <c r="MX2"/>
+      <c r="MY2"/>
+      <c r="MZ2"/>
+      <c r="NA2"/>
+      <c r="NB2"/>
+      <c r="NC2"/>
+      <c r="ND2"/>
+      <c r="NE2"/>
+      <c r="NF2"/>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2"/>
+      <c r="NX2"/>
+      <c r="NY2"/>
+      <c r="NZ2"/>
+      <c r="OA2"/>
+      <c r="OB2"/>
+      <c r="OC2"/>
+      <c r="OD2"/>
+      <c r="OE2"/>
+      <c r="OF2"/>
+      <c r="OG2"/>
+      <c r="OH2"/>
+      <c r="OI2"/>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
+      <c r="PA2"/>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
+      <c r="PE2"/>
+      <c r="PF2"/>
+      <c r="PG2"/>
+      <c r="PH2"/>
+      <c r="PI2"/>
+      <c r="PJ2"/>
+      <c r="PK2"/>
+      <c r="PL2"/>
+      <c r="PM2"/>
+      <c r="PN2"/>
+      <c r="PO2"/>
+      <c r="PP2"/>
+      <c r="PQ2"/>
+      <c r="PR2"/>
+      <c r="PS2"/>
+      <c r="PT2"/>
+      <c r="PU2"/>
+      <c r="PV2"/>
+      <c r="PW2"/>
+      <c r="PX2"/>
+      <c r="PY2"/>
+      <c r="PZ2"/>
+      <c r="QA2"/>
+      <c r="QB2"/>
+      <c r="QC2"/>
+      <c r="QD2"/>
+      <c r="QE2"/>
+      <c r="QF2"/>
+      <c r="QG2"/>
+      <c r="QH2"/>
+      <c r="QI2"/>
+      <c r="QJ2"/>
+      <c r="QK2"/>
+      <c r="QL2"/>
+      <c r="QM2"/>
+      <c r="QN2"/>
+      <c r="QO2"/>
+      <c r="QP2"/>
+      <c r="QQ2"/>
+      <c r="QR2"/>
+      <c r="QS2"/>
+      <c r="QT2"/>
+      <c r="QU2"/>
+      <c r="QV2"/>
+      <c r="QW2"/>
+      <c r="QX2"/>
+      <c r="QY2"/>
+      <c r="QZ2" t="n">
+        <v>0.9750772</v>
+      </c>
+      <c r="RA2" t="n">
+        <v>0.9750772</v>
+      </c>
+      <c r="RB2"/>
+      <c r="RC2"/>
+      <c r="RD2"/>
+      <c r="RE2"/>
+      <c r="RF2"/>
+      <c r="RG2"/>
+      <c r="RH2"/>
+      <c r="RI2"/>
+      <c r="RJ2"/>
+      <c r="RK2"/>
+      <c r="RL2"/>
+      <c r="RM2"/>
+      <c r="RN2"/>
+      <c r="RO2"/>
+      <c r="RP2"/>
+      <c r="RQ2"/>
+      <c r="RR2"/>
+      <c r="RS2"/>
+      <c r="RT2"/>
+      <c r="RU2"/>
+      <c r="RV2"/>
+      <c r="RW2"/>
+      <c r="RX2"/>
+      <c r="RY2"/>
+      <c r="RZ2"/>
+      <c r="SA2"/>
+      <c r="SB2"/>
+      <c r="SC2"/>
+      <c r="SD2"/>
+      <c r="SE2"/>
+      <c r="SF2"/>
+      <c r="SG2"/>
+      <c r="SH2"/>
+      <c r="SI2"/>
+      <c r="SJ2"/>
+      <c r="SK2"/>
+      <c r="SL2"/>
+      <c r="SM2"/>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
+      <c r="ST2"/>
+      <c r="SU2"/>
+      <c r="SV2"/>
+      <c r="SW2"/>
+      <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4874,24 +3838,24 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B2" t="n">
         <v>1958.0</v>
@@ -4900,7 +3864,7 @@
         <v>1961.0</v>
       </c>
       <c r="D2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E2" t="n">
         <v>1959.0</v>
@@ -4911,7 +3875,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B3" t="n">
         <v>1958.0</v>
@@ -4920,7 +3884,7 @@
         <v>1961.0</v>
       </c>
       <c r="D3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E3" t="n">
         <v>1960.0</v>
@@ -4944,68 +3908,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" t="s">
         <v>534</v>
-      </c>
-      <c r="B1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/EgyptUnitedArabRepublic_1958_1961_all_data.xlsx
+++ b/www/docs/EgyptUnitedArabRepublic_1958_1961_all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="581">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1586,6 +1586,111 @@
   </si>
   <si>
     <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
   </si>
   <si>
     <t>cshapes/1604</t>
@@ -3275,17 +3380,122 @@
       <c r="TD1" t="s">
         <v>523</v>
       </c>
+      <c r="TE1" t="s">
+        <v>524</v>
+      </c>
+      <c r="TF1" t="s">
+        <v>525</v>
+      </c>
+      <c r="TG1" t="s">
+        <v>526</v>
+      </c>
+      <c r="TH1" t="s">
+        <v>527</v>
+      </c>
+      <c r="TI1" t="s">
+        <v>528</v>
+      </c>
+      <c r="TJ1" t="s">
+        <v>529</v>
+      </c>
+      <c r="TK1" t="s">
+        <v>530</v>
+      </c>
+      <c r="TL1" t="s">
+        <v>531</v>
+      </c>
+      <c r="TM1" t="s">
+        <v>532</v>
+      </c>
+      <c r="TN1" t="s">
+        <v>533</v>
+      </c>
+      <c r="TO1" t="s">
+        <v>534</v>
+      </c>
+      <c r="TP1" t="s">
+        <v>535</v>
+      </c>
+      <c r="TQ1" t="s">
+        <v>536</v>
+      </c>
+      <c r="TR1" t="s">
+        <v>537</v>
+      </c>
+      <c r="TS1" t="s">
+        <v>538</v>
+      </c>
+      <c r="TT1" t="s">
+        <v>539</v>
+      </c>
+      <c r="TU1" t="s">
+        <v>540</v>
+      </c>
+      <c r="TV1" t="s">
+        <v>541</v>
+      </c>
+      <c r="TW1" t="s">
+        <v>542</v>
+      </c>
+      <c r="TX1" t="s">
+        <v>543</v>
+      </c>
+      <c r="TY1" t="s">
+        <v>544</v>
+      </c>
+      <c r="TZ1" t="s">
+        <v>545</v>
+      </c>
+      <c r="UA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="UB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="UC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="UD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="UE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="UF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="UG1" t="s">
+        <v>552</v>
+      </c>
+      <c r="UH1" t="s">
+        <v>553</v>
+      </c>
+      <c r="UI1" t="s">
+        <v>554</v>
+      </c>
+      <c r="UJ1" t="s">
+        <v>555</v>
+      </c>
+      <c r="UK1" t="s">
+        <v>556</v>
+      </c>
+      <c r="UL1" t="s">
+        <v>557</v>
+      </c>
+      <c r="UM1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="B2" t="n">
         <v>1604.0</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="E2" t="n">
         <v>1958.0</v>
@@ -3294,10 +3504,10 @@
         <v>1961.0</v>
       </c>
       <c r="G2" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="H2" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -3819,6 +4029,41 @@
       <c r="TB2"/>
       <c r="TC2"/>
       <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
+      <c r="UH2"/>
+      <c r="UI2"/>
+      <c r="UJ2"/>
+      <c r="UK2"/>
+      <c r="UL2"/>
+      <c r="UM2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3838,24 +4083,129 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C1" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K1" t="s">
         <v>530</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>531</v>
+      </c>
+      <c r="M1" t="s">
+        <v>532</v>
+      </c>
+      <c r="N1" t="s">
+        <v>533</v>
+      </c>
+      <c r="O1" t="s">
+        <v>534</v>
+      </c>
+      <c r="P1" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>536</v>
+      </c>
+      <c r="R1" t="s">
+        <v>537</v>
+      </c>
+      <c r="S1" t="s">
+        <v>538</v>
+      </c>
+      <c r="T1" t="s">
+        <v>539</v>
+      </c>
+      <c r="U1" t="s">
+        <v>540</v>
+      </c>
+      <c r="V1" t="s">
+        <v>541</v>
+      </c>
+      <c r="W1" t="s">
+        <v>542</v>
+      </c>
+      <c r="X1" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B2" t="n">
         <v>1958.0</v>
@@ -3864,18 +4214,53 @@
         <v>1961.0</v>
       </c>
       <c r="D2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" t="n">
+        <v>562</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2" t="n">
         <v>1959.0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="AO2" t="n">
         <v>0.9750772</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B3" t="n">
         <v>1958.0</v>
@@ -3884,12 +4269,47 @@
         <v>1961.0</v>
       </c>
       <c r="D3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E3" t="n">
+        <v>562</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3" t="n">
         <v>1960.0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="AO3" t="n">
         <v>0.9750772</v>
       </c>
     </row>
@@ -3908,68 +4328,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="B1" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C1" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C4" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="B5" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C5" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="B6" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
